--- a/Fichier_PCB/Ecout-Terre_PCB_V2/Ecout-Terre_PCB_V2.xlsx
+++ b/Fichier_PCB/Ecout-Terre_PCB_V2/Ecout-Terre_PCB_V2.xlsx
@@ -1,137 +1,581 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_6\Projet\EcouSol\Fichier_PCB\Ecout-Terre_PCB_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_6\Projet\EcouSol\Fichier_PCB\Ecout-Terre_PCB_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3DC82368-158B-43CB-A9FD-3D9D6C44E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5CC4ED4A-5A86-48CB-9B71-CA749A58BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11505"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Ecout-Terre_PCB_V1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ecout-Terre_PCB_V2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="183">
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Qnty</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Cmp name</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, C5, C6, </t>
+  </si>
   <si>
     <t>10u</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, US symbol</t>
+    <t xml:space="preserve">C3, C10, </t>
+  </si>
+  <si>
+    <t>180uF</t>
+  </si>
+  <si>
+    <t>C_Polarized_US</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4, C14, C17, C29, C30, C31, C32, C33, C34, C40, C42, </t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C7, </t>
+  </si>
+  <si>
     <t>3300pF</t>
   </si>
   <si>
+    <t xml:space="preserve">C8, </t>
+  </si>
+  <si>
+    <t>56nF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0504_1310Metric_Pad0.83x1.28mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C18, C24, </t>
+  </si>
+  <si>
     <t>10pF</t>
   </si>
   <si>
+    <t xml:space="preserve">C11, C12, C13, C16, C39, C41, C43, C44, </t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C15, </t>
+  </si>
+  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>100pF</t>
+    <t xml:space="preserve">C19, C21, </t>
+  </si>
+  <si>
+    <t>0.022uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20, </t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22, </t>
   </si>
   <si>
     <t>3.3uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C23, C27, C28, C35, C36, </t>
+  </si>
+  <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>Polarized capacitor</t>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25, </t>
   </si>
   <si>
     <t>0.047uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C26, </t>
+  </si>
+  <si>
+    <t>470uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_Elec_8x10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C37, C38, </t>
+  </si>
+  <si>
     <t>20pF</t>
   </si>
   <si>
+    <t xml:space="preserve">D1, </t>
+  </si>
+  <si>
+    <t>MCCSK54B-LTP</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, D3, D4, D5, </t>
+  </si>
+  <si>
+    <t>D_Z_2V4</t>
+  </si>
+  <si>
+    <t>D_Zener</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6, </t>
+  </si>
+  <si>
+    <t>DEL_5V</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7, </t>
+  </si>
+  <si>
+    <t>DEL_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, </t>
+  </si>
+  <si>
+    <t>USB_C_Receptacle_USB2.0</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2, </t>
+  </si>
+  <si>
+    <t>Pile</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>TerminalBlock:TerminalBlock_bornier-2_P5.08mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3, </t>
+  </si>
+  <si>
+    <t>AudioJack4</t>
+  </si>
+  <si>
+    <t>Connector_Audio:Jack_3.5mm_CUI_SJ-3524-SMT_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4, </t>
+  </si>
+  <si>
+    <t>Test_5V</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5, </t>
+  </si>
+  <si>
+    <t>Conn_Alim</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x04</t>
+  </si>
+  <si>
+    <t>TerminalBlock:TerminalBlock_bornier-4_P5.08mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6, </t>
+  </si>
+  <si>
+    <t>Test_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7, J8, </t>
+  </si>
+  <si>
+    <t>Conn_ESP</t>
+  </si>
+  <si>
+    <t>Conn_01x19_Female</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x19_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9, </t>
+  </si>
+  <si>
+    <t>Sortie_alim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10, </t>
+  </si>
+  <si>
+    <t>Micro_SD_Card</t>
+  </si>
+  <si>
+    <t>Connector_Card:microSD_HC_Wuerth_693072010801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11, </t>
+  </si>
+  <si>
+    <t>Test_10V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12, </t>
+  </si>
+  <si>
+    <t>Conn_01x01_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x01_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13, </t>
+  </si>
+  <si>
+    <t>Conn_GPS</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.00mm:PinSocket_1x04_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14, </t>
+  </si>
+  <si>
+    <t>Conn_Audio_Alim</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Female</t>
+  </si>
+  <si>
+    <t>Connector_Wire:SolderWire-0.75sqmm_1x02_P4.8mm_D1.25mm_OD2.3mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15, </t>
+  </si>
+  <si>
+    <t>Conn_Audio_Diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J16, </t>
+  </si>
+  <si>
+    <t>Conn_Main_Alim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J17, </t>
+  </si>
+  <si>
+    <t>Conn_Main_Diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J18, </t>
+  </si>
+  <si>
+    <t>Conn_01x03_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, </t>
+  </si>
+  <si>
+    <t>3.3uH</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_Vishay_IHLP-4040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK1, </t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Microphone_Condenser</t>
+  </si>
+  <si>
+    <t>Connector_Wire:SolderWire-0.1sqmm_1x02_P3.6mm_D0.4mm_OD1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1, </t>
+  </si>
+  <si>
+    <t>CSD16327Q3</t>
+  </si>
+  <si>
+    <t>Package_SON:VSON-8_3.3x3.3mm_P0.65mm_NexFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, </t>
+  </si>
+  <si>
     <t>2.2k</t>
   </si>
   <si>
+    <t>R_US</t>
+  </si>
+  <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t>Resistor, US symbol</t>
+    <t xml:space="preserve">R2, </t>
   </si>
   <si>
     <t>27k</t>
   </si>
   <si>
+    <t xml:space="preserve">R3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, </t>
+  </si>
+  <si>
     <t>6.8k</t>
   </si>
   <si>
+    <t xml:space="preserve">R5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, </t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0815_2038Metric_Pad1.20x4.05mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R8, R9, R10, R11, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R37, R38, </t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>Resistor</t>
+    <t xml:space="preserve">R12, </t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
+    <t xml:space="preserve">R13, </t>
+  </si>
+  <si>
     <t>75k</t>
   </si>
   <si>
+    <t xml:space="preserve">R14, R16, </t>
+  </si>
+  <si>
     <t>47k</t>
   </si>
   <si>
+    <t xml:space="preserve">R15, R17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21, </t>
+  </si>
+  <si>
     <t>1k</t>
   </si>
   <si>
+    <t xml:space="preserve">R34, R35, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39, </t>
+  </si>
+  <si>
+    <t>9.1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40, </t>
+  </si>
+  <si>
+    <t>1.25k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV1, </t>
+  </si>
+  <si>
+    <t>R_Potentiometer_US</t>
+  </si>
+  <si>
     <t>Potentiometer_THT:Potentiometer_Bourns_3386P_Vertical</t>
   </si>
   <si>
-    <t>Potentiometer, US symbol</t>
+    <t xml:space="preserve">RV2, </t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>Potentiometer_THT:Potentiometer_Bourns_3296W_Vertical</t>
-  </si>
-  <si>
-    <t>Quantité:</t>
-  </si>
-  <si>
-    <t>Footprint:</t>
-  </si>
-  <si>
-    <t>Valeur:</t>
-  </si>
-  <si>
-    <t>Description:</t>
+    <t>Potentiometer_SMD:Potentiometer_Bourns_TC33X_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, </t>
+  </si>
+  <si>
+    <t>TS3480CX33RFG</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2, </t>
+  </si>
+  <si>
+    <t>MC33269</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3, </t>
+  </si>
+  <si>
+    <t>LM3478</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4, </t>
+  </si>
+  <si>
+    <t>PCM1804</t>
+  </si>
+  <si>
+    <t>Package_SO:SSOP-28_5.3x10.2mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5, U8, </t>
+  </si>
+  <si>
+    <t>OPA1656</t>
+  </si>
+  <si>
+    <t>TL072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6, </t>
+  </si>
+  <si>
+    <t>LM386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7, </t>
+  </si>
+  <si>
+    <t>74LVT04</t>
+  </si>
+  <si>
+    <t>74HC04</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1, </t>
+  </si>
+  <si>
+    <t>7V-22.5792MAHV-T</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +710,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -455,12 +907,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -614,19 +1066,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,20 +1111,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,414 +1471,1537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E28"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>100</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>120</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>470</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>330</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D107" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>680</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" t="s">
+        <v>162</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>470</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
-        <v>330</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>28</v>
+      <c r="C131" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D137" t="s">
+        <v>181</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>